--- a/backend/fms_core/tests/valid_templates/Normalization_planning_v3_13_0_Pool.xlsx
+++ b/backend/fms_core/tests/valid_templates/Normalization_planning_v3_13_0_Pool.xlsx
@@ -21,8 +21,32 @@
 </workbook>
 </file>
 
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <authors>
+    <author>UFG</author>
+  </authors>
+  <commentList>
+    <comment ref="H3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="0"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Used for index validation. If left empty, the validation will be skipped.</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="53">
   <si>
     <t xml:space="preserve">Sample and Library Normalization Planning Template</t>
   </si>
@@ -144,10 +168,16 @@
     <t xml:space="preserve">Pool Parent Container Coord</t>
   </si>
   <si>
+    <t xml:space="preserve">Seq Instrument Type</t>
+  </si>
+  <si>
     <t xml:space="preserve">ScoobaTooba</t>
   </si>
   <si>
     <t xml:space="preserve">tube</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Illumina NovaSeq 6000</t>
   </si>
   <si>
     <t xml:space="preserve">Container Kind</t>
@@ -159,6 +189,9 @@
     <t xml:space="preserve">Pooling Container Kind</t>
   </si>
   <si>
+    <t xml:space="preserve">Illumina MiSeq</t>
+  </si>
+  <si>
     <t xml:space="preserve">384-well plate</t>
   </si>
   <si>
@@ -166,6 +199,12 @@
   </si>
   <si>
     <t xml:space="preserve">Sample Janus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DNBSEQ-G400</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DNBSEQ-T7</t>
   </si>
 </sst>
 </file>
@@ -225,8 +264,9 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="0"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="4">
@@ -304,7 +344,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -342,10 +382,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -432,7 +468,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.45703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.46484375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="24.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="25.86"/>
@@ -7952,13 +7988,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G100"/>
+  <dimension ref="A1:H100"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="91" zoomScaleNormal="91" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="25.91"/>
@@ -7967,6 +8003,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="25.08"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="30.04"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="31.26"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="20.6"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8004,23 +8041,29 @@
       <c r="G3" s="5" t="s">
         <v>39</v>
       </c>
+      <c r="H3" s="5" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C4" s="2"/>
-      <c r="D4" s="10" t="s">
-        <v>40</v>
+      <c r="D4" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
+      <c r="H4" s="2" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2"/>
@@ -8030,6 +8073,7 @@
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2"/>
@@ -8039,6 +8083,7 @@
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2"/>
@@ -8048,6 +8093,7 @@
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2"/>
@@ -8057,6 +8103,7 @@
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2"/>
@@ -8066,6 +8113,7 @@
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2"/>
@@ -8075,6 +8123,7 @@
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2"/>
@@ -8084,6 +8133,7 @@
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2"/>
@@ -8093,6 +8143,7 @@
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2"/>
@@ -8102,6 +8153,7 @@
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2"/>
@@ -8111,6 +8163,7 @@
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2"/>
@@ -8120,6 +8173,7 @@
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2"/>
@@ -8129,6 +8183,7 @@
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2"/>
@@ -8138,6 +8193,7 @@
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="2"/>
@@ -8147,6 +8203,7 @@
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="2"/>
@@ -8156,6 +8213,7 @@
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="2"/>
@@ -8165,6 +8223,7 @@
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="2"/>
@@ -8174,6 +8233,7 @@
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="2"/>
@@ -8183,6 +8243,7 @@
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="2"/>
@@ -8192,6 +8253,7 @@
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="2"/>
@@ -8201,6 +8263,7 @@
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="2"/>
@@ -8210,6 +8273,7 @@
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="2"/>
@@ -8219,6 +8283,7 @@
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="2"/>
@@ -8228,6 +8293,7 @@
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="2"/>
@@ -8237,6 +8303,7 @@
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="2"/>
@@ -8246,6 +8313,7 @@
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="2"/>
@@ -8255,6 +8323,7 @@
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="2"/>
@@ -8264,6 +8333,7 @@
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="2"/>
@@ -8273,6 +8343,7 @@
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="2"/>
@@ -8282,6 +8353,7 @@
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="2"/>
@@ -8291,6 +8363,7 @@
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="2"/>
@@ -8300,6 +8373,7 @@
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
       <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="2"/>
@@ -8309,6 +8383,7 @@
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
       <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="2"/>
@@ -8318,6 +8393,7 @@
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
       <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="2"/>
@@ -8327,6 +8403,7 @@
       <c r="E38" s="2"/>
       <c r="F38" s="2"/>
       <c r="G38" s="2"/>
+      <c r="H38" s="2"/>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="2"/>
@@ -8336,6 +8413,7 @@
       <c r="E39" s="2"/>
       <c r="F39" s="2"/>
       <c r="G39" s="2"/>
+      <c r="H39" s="2"/>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="2"/>
@@ -8345,6 +8423,7 @@
       <c r="E40" s="2"/>
       <c r="F40" s="2"/>
       <c r="G40" s="2"/>
+      <c r="H40" s="2"/>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="2"/>
@@ -8354,6 +8433,7 @@
       <c r="E41" s="2"/>
       <c r="F41" s="2"/>
       <c r="G41" s="2"/>
+      <c r="H41" s="2"/>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="2"/>
@@ -8363,6 +8443,7 @@
       <c r="E42" s="2"/>
       <c r="F42" s="2"/>
       <c r="G42" s="2"/>
+      <c r="H42" s="2"/>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="2"/>
@@ -8372,6 +8453,7 @@
       <c r="E43" s="2"/>
       <c r="F43" s="2"/>
       <c r="G43" s="2"/>
+      <c r="H43" s="2"/>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="2"/>
@@ -8381,6 +8463,7 @@
       <c r="E44" s="2"/>
       <c r="F44" s="2"/>
       <c r="G44" s="2"/>
+      <c r="H44" s="2"/>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="2"/>
@@ -8390,6 +8473,7 @@
       <c r="E45" s="2"/>
       <c r="F45" s="2"/>
       <c r="G45" s="2"/>
+      <c r="H45" s="2"/>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="2"/>
@@ -8399,6 +8483,7 @@
       <c r="E46" s="2"/>
       <c r="F46" s="2"/>
       <c r="G46" s="2"/>
+      <c r="H46" s="2"/>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="2"/>
@@ -8408,6 +8493,7 @@
       <c r="E47" s="2"/>
       <c r="F47" s="2"/>
       <c r="G47" s="2"/>
+      <c r="H47" s="2"/>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="2"/>
@@ -8417,6 +8503,7 @@
       <c r="E48" s="2"/>
       <c r="F48" s="2"/>
       <c r="G48" s="2"/>
+      <c r="H48" s="2"/>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="2"/>
@@ -8426,6 +8513,7 @@
       <c r="E49" s="2"/>
       <c r="F49" s="2"/>
       <c r="G49" s="2"/>
+      <c r="H49" s="2"/>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="2"/>
@@ -8435,6 +8523,7 @@
       <c r="E50" s="2"/>
       <c r="F50" s="2"/>
       <c r="G50" s="2"/>
+      <c r="H50" s="2"/>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="2"/>
@@ -8444,6 +8533,7 @@
       <c r="E51" s="2"/>
       <c r="F51" s="2"/>
       <c r="G51" s="2"/>
+      <c r="H51" s="2"/>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="2"/>
@@ -8453,6 +8543,7 @@
       <c r="E52" s="2"/>
       <c r="F52" s="2"/>
       <c r="G52" s="2"/>
+      <c r="H52" s="2"/>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="2"/>
@@ -8462,6 +8553,7 @@
       <c r="E53" s="2"/>
       <c r="F53" s="2"/>
       <c r="G53" s="2"/>
+      <c r="H53" s="2"/>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="2"/>
@@ -8471,6 +8563,7 @@
       <c r="E54" s="2"/>
       <c r="F54" s="2"/>
       <c r="G54" s="2"/>
+      <c r="H54" s="2"/>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="2"/>
@@ -8480,6 +8573,7 @@
       <c r="E55" s="2"/>
       <c r="F55" s="2"/>
       <c r="G55" s="2"/>
+      <c r="H55" s="2"/>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="2"/>
@@ -8489,6 +8583,7 @@
       <c r="E56" s="2"/>
       <c r="F56" s="2"/>
       <c r="G56" s="2"/>
+      <c r="H56" s="2"/>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="2"/>
@@ -8498,6 +8593,7 @@
       <c r="E57" s="2"/>
       <c r="F57" s="2"/>
       <c r="G57" s="2"/>
+      <c r="H57" s="2"/>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="2"/>
@@ -8507,6 +8603,7 @@
       <c r="E58" s="2"/>
       <c r="F58" s="2"/>
       <c r="G58" s="2"/>
+      <c r="H58" s="2"/>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="2"/>
@@ -8516,6 +8613,7 @@
       <c r="E59" s="2"/>
       <c r="F59" s="2"/>
       <c r="G59" s="2"/>
+      <c r="H59" s="2"/>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="2"/>
@@ -8525,6 +8623,7 @@
       <c r="E60" s="2"/>
       <c r="F60" s="2"/>
       <c r="G60" s="2"/>
+      <c r="H60" s="2"/>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="2"/>
@@ -8534,6 +8633,7 @@
       <c r="E61" s="2"/>
       <c r="F61" s="2"/>
       <c r="G61" s="2"/>
+      <c r="H61" s="2"/>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="2"/>
@@ -8543,6 +8643,7 @@
       <c r="E62" s="2"/>
       <c r="F62" s="2"/>
       <c r="G62" s="2"/>
+      <c r="H62" s="2"/>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="2"/>
@@ -8552,6 +8653,7 @@
       <c r="E63" s="2"/>
       <c r="F63" s="2"/>
       <c r="G63" s="2"/>
+      <c r="H63" s="2"/>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="2"/>
@@ -8561,6 +8663,7 @@
       <c r="E64" s="2"/>
       <c r="F64" s="2"/>
       <c r="G64" s="2"/>
+      <c r="H64" s="2"/>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="2"/>
@@ -8570,6 +8673,7 @@
       <c r="E65" s="2"/>
       <c r="F65" s="2"/>
       <c r="G65" s="2"/>
+      <c r="H65" s="2"/>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="2"/>
@@ -8579,6 +8683,7 @@
       <c r="E66" s="2"/>
       <c r="F66" s="2"/>
       <c r="G66" s="2"/>
+      <c r="H66" s="2"/>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="2"/>
@@ -8588,6 +8693,7 @@
       <c r="E67" s="2"/>
       <c r="F67" s="2"/>
       <c r="G67" s="2"/>
+      <c r="H67" s="2"/>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="2"/>
@@ -8597,6 +8703,7 @@
       <c r="E68" s="2"/>
       <c r="F68" s="2"/>
       <c r="G68" s="2"/>
+      <c r="H68" s="2"/>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="2"/>
@@ -8606,6 +8713,7 @@
       <c r="E69" s="2"/>
       <c r="F69" s="2"/>
       <c r="G69" s="2"/>
+      <c r="H69" s="2"/>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="2"/>
@@ -8615,6 +8723,7 @@
       <c r="E70" s="2"/>
       <c r="F70" s="2"/>
       <c r="G70" s="2"/>
+      <c r="H70" s="2"/>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="2"/>
@@ -8624,6 +8733,7 @@
       <c r="E71" s="2"/>
       <c r="F71" s="2"/>
       <c r="G71" s="2"/>
+      <c r="H71" s="2"/>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="2"/>
@@ -8633,6 +8743,7 @@
       <c r="E72" s="2"/>
       <c r="F72" s="2"/>
       <c r="G72" s="2"/>
+      <c r="H72" s="2"/>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="2"/>
@@ -8642,6 +8753,7 @@
       <c r="E73" s="2"/>
       <c r="F73" s="2"/>
       <c r="G73" s="2"/>
+      <c r="H73" s="2"/>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="2"/>
@@ -8651,6 +8763,7 @@
       <c r="E74" s="2"/>
       <c r="F74" s="2"/>
       <c r="G74" s="2"/>
+      <c r="H74" s="2"/>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="2"/>
@@ -8660,6 +8773,7 @@
       <c r="E75" s="2"/>
       <c r="F75" s="2"/>
       <c r="G75" s="2"/>
+      <c r="H75" s="2"/>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="2"/>
@@ -8669,6 +8783,7 @@
       <c r="E76" s="2"/>
       <c r="F76" s="2"/>
       <c r="G76" s="2"/>
+      <c r="H76" s="2"/>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="2"/>
@@ -8678,6 +8793,7 @@
       <c r="E77" s="2"/>
       <c r="F77" s="2"/>
       <c r="G77" s="2"/>
+      <c r="H77" s="2"/>
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="2"/>
@@ -8687,6 +8803,7 @@
       <c r="E78" s="2"/>
       <c r="F78" s="2"/>
       <c r="G78" s="2"/>
+      <c r="H78" s="2"/>
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="2"/>
@@ -8696,6 +8813,7 @@
       <c r="E79" s="2"/>
       <c r="F79" s="2"/>
       <c r="G79" s="2"/>
+      <c r="H79" s="2"/>
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="2"/>
@@ -8705,6 +8823,7 @@
       <c r="E80" s="2"/>
       <c r="F80" s="2"/>
       <c r="G80" s="2"/>
+      <c r="H80" s="2"/>
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="2"/>
@@ -8714,6 +8833,7 @@
       <c r="E81" s="2"/>
       <c r="F81" s="2"/>
       <c r="G81" s="2"/>
+      <c r="H81" s="2"/>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="2"/>
@@ -8723,6 +8843,7 @@
       <c r="E82" s="2"/>
       <c r="F82" s="2"/>
       <c r="G82" s="2"/>
+      <c r="H82" s="2"/>
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="2"/>
@@ -8732,6 +8853,7 @@
       <c r="E83" s="2"/>
       <c r="F83" s="2"/>
       <c r="G83" s="2"/>
+      <c r="H83" s="2"/>
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="2"/>
@@ -8741,6 +8863,7 @@
       <c r="E84" s="2"/>
       <c r="F84" s="2"/>
       <c r="G84" s="2"/>
+      <c r="H84" s="2"/>
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="2"/>
@@ -8750,6 +8873,7 @@
       <c r="E85" s="2"/>
       <c r="F85" s="2"/>
       <c r="G85" s="2"/>
+      <c r="H85" s="2"/>
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="2"/>
@@ -8759,6 +8883,7 @@
       <c r="E86" s="2"/>
       <c r="F86" s="2"/>
       <c r="G86" s="2"/>
+      <c r="H86" s="2"/>
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="2"/>
@@ -8768,6 +8893,7 @@
       <c r="E87" s="2"/>
       <c r="F87" s="2"/>
       <c r="G87" s="2"/>
+      <c r="H87" s="2"/>
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="2"/>
@@ -8777,6 +8903,7 @@
       <c r="E88" s="2"/>
       <c r="F88" s="2"/>
       <c r="G88" s="2"/>
+      <c r="H88" s="2"/>
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="2"/>
@@ -8786,6 +8913,7 @@
       <c r="E89" s="2"/>
       <c r="F89" s="2"/>
       <c r="G89" s="2"/>
+      <c r="H89" s="2"/>
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="2"/>
@@ -8795,6 +8923,7 @@
       <c r="E90" s="2"/>
       <c r="F90" s="2"/>
       <c r="G90" s="2"/>
+      <c r="H90" s="2"/>
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="2"/>
@@ -8804,6 +8933,7 @@
       <c r="E91" s="2"/>
       <c r="F91" s="2"/>
       <c r="G91" s="2"/>
+      <c r="H91" s="2"/>
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="2"/>
@@ -8813,6 +8943,7 @@
       <c r="E92" s="2"/>
       <c r="F92" s="2"/>
       <c r="G92" s="2"/>
+      <c r="H92" s="2"/>
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="2"/>
@@ -8822,6 +8953,7 @@
       <c r="E93" s="2"/>
       <c r="F93" s="2"/>
       <c r="G93" s="2"/>
+      <c r="H93" s="2"/>
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="2"/>
@@ -8831,6 +8963,7 @@
       <c r="E94" s="2"/>
       <c r="F94" s="2"/>
       <c r="G94" s="2"/>
+      <c r="H94" s="2"/>
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="2"/>
@@ -8840,6 +8973,7 @@
       <c r="E95" s="2"/>
       <c r="F95" s="2"/>
       <c r="G95" s="2"/>
+      <c r="H95" s="2"/>
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="2"/>
@@ -8849,6 +8983,7 @@
       <c r="E96" s="2"/>
       <c r="F96" s="2"/>
       <c r="G96" s="2"/>
+      <c r="H96" s="2"/>
     </row>
     <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="2"/>
@@ -8858,6 +8993,7 @@
       <c r="E97" s="2"/>
       <c r="F97" s="2"/>
       <c r="G97" s="2"/>
+      <c r="H97" s="2"/>
     </row>
     <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="2"/>
@@ -8887,9 +9023,13 @@
       <c r="G100" s="2"/>
     </row>
   </sheetData>
-  <dataValidations count="1">
+  <dataValidations count="2">
     <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="E4:E97" type="list">
       <formula1>Index!$C$2:$C$4</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="H4:H97" type="list">
+      <formula1>Index!$D$2:$D$5</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
@@ -8900,6 +9040,7 @@
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -8908,32 +9049,36 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C1000"/>
+  <dimension ref="A1:D1000"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.45703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.46484375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="26.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="20.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="4" style="0" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="22.27"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="5" style="0" width="9.14"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="9" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1" s="8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="9" t="s">
         <v>25</v>
       </c>
@@ -8941,26 +9086,40 @@
         <v>20</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="9" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C3" s="9" t="s">
         <v>25</v>
       </c>
+      <c r="D3" s="8" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="9" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>45</v>
+        <v>48</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D5" s="8" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
